--- a/Unity/Assets/Config/Excel/Datas/Battle/AttributeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/AttributeConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC7A9BE-2E20-46E4-B8F4-F4E0BCD5150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31629EDE-DC69-49F7-AC25-34FD53579905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>Remarks</t>
   </si>
   <si>
     <t>Key</t>
@@ -214,6 +211,14 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>##Remarks</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -630,12 +635,13 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="24.75" customWidth="1"/>
@@ -645,65 +651,65 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -736,10 +742,10 @@
         <v>1000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -753,19 +759,19 @@
         <v>1001</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -774,19 +780,19 @@
         <v>1002</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -794,19 +800,19 @@
         <v>1003</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -814,13 +820,13 @@
         <v>1004</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -828,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -836,13 +842,13 @@
         <v>1005</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -850,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -858,19 +864,19 @@
         <v>1006</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -878,13 +884,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -892,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -900,13 +906,13 @@
         <v>1008</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -914,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -922,13 +928,13 @@
         <v>1009</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -946,13 +952,13 @@
         <v>1010</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -960,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -968,13 +974,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -982,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
